--- a/src/test/resources/ExcelSheet/Admin.xlsx
+++ b/src/test/resources/ExcelSheet/Admin.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Orange Full Test Automation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orangehrmsystems\Automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="UserAdd" sheetId="10" r:id="rId2"/>
+    <sheet name="UserAdd" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="JobTitleAdd" sheetId="11" r:id="rId3"/>
+    <sheet name="GeneralInformation" sheetId="12" r:id="rId4"/>
+    <sheet name="GeneralInformation1" sheetId="13" r:id="rId5"/>
+    <sheet name="EmailConfig" sheetId="14" r:id="rId6"/>
+    <sheet name="ClientData" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>userName</t>
   </si>
@@ -61,13 +66,121 @@
   </si>
   <si>
     <t>Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobTitle </t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>Computing Systems</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Notesss</t>
+  </si>
+  <si>
+    <t>Itcb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>info@.com</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>538 Teal Plaza</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Jaffna</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Entha solurathu</t>
+  </si>
+  <si>
+    <t>taxid</t>
+  </si>
+  <si>
+    <t>rgnumber</t>
+  </si>
+  <si>
+    <t>A23456</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>011 2505581</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>kokuvil noth kokuvil</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>sentas</t>
+  </si>
+  <si>
+    <t>dailog1996@gmail.com</t>
+  </si>
+  <si>
+    <t>pathemail</t>
+  </si>
+  <si>
+    <t>thevakajan3@gmail.com</t>
+  </si>
+  <si>
+    <t>testmail</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serett</t>
+  </si>
+  <si>
+    <t>webSite</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +192,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,14 +226,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -419,6 +551,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>123456789</v>
+      </c>
+      <c r="F2">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,63 +645,334 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>123456789</v>
-      </c>
-      <c r="F2">
-        <v>123456789</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>769376396</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>12004</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>769376396</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>12004</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2659</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/Admin.xlsx
+++ b/src/test/resources/ExcelSheet/Admin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orangehrmsystems\Automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Orange-DataDriven\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" activeTab="6"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="UserAdd" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="GeneralInformation1" sheetId="13" r:id="rId5"/>
     <sheet name="EmailConfig" sheetId="14" r:id="rId6"/>
     <sheet name="ClientData" sheetId="15" r:id="rId7"/>
+    <sheet name="LocationsX" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>userName</t>
   </si>
@@ -174,6 +175,33 @@
   </si>
   <si>
     <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>cuntry</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>thevakaja</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>jaffna</t>
+  </si>
+  <si>
+    <t>kokuvil</t>
+  </si>
+  <si>
+    <t>Enathasolurathu</t>
   </si>
 </sst>
 </file>
@@ -938,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -975,4 +1003,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>40000</v>
+      </c>
+      <c r="G2">
+        <v>76937696</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/Admin.xlsx
+++ b/src/test/resources/ExcelSheet/Admin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Orange-DataDriven\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orangehrmsystems\Automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="UserAdd" sheetId="10" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="EmailConfig" sheetId="14" r:id="rId6"/>
     <sheet name="ClientData" sheetId="15" r:id="rId7"/>
     <sheet name="LocationsX" sheetId="16" r:id="rId8"/>
+    <sheet name="Work_Shift" sheetId="17" r:id="rId9"/>
+    <sheet name="Edit_Work_shift" sheetId="18" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>userName</t>
   </si>
@@ -202,6 +204,27 @@
   </si>
   <si>
     <t>Enathasolurathu</t>
+  </si>
+  <si>
+    <t>frome</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>aemployee</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Thomas Fleming</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Linda Anderson</t>
   </si>
 </sst>
 </file>
@@ -259,10 +282,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -638,6 +662,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
@@ -718,7 +790,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,11 +1081,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1076,4 +1152,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/Admin.xlsx
+++ b/src/test/resources/ExcelSheet/Admin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="15372" windowHeight="7872" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="UserAdd" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="LocationsX" sheetId="16" r:id="rId8"/>
     <sheet name="Work_Shift" sheetId="17" r:id="rId9"/>
     <sheet name="Edit_Work_shift" sheetId="18" r:id="rId10"/>
+    <sheet name="Structure_Data_Xl" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>userName</t>
   </si>
@@ -225,6 +226,15 @@
   </si>
   <si>
     <t>Linda Anderson</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>heva</t>
+  </si>
+  <si>
+    <t>bsjhudhujhuhnvujh</t>
   </si>
 </sst>
 </file>
@@ -666,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +717,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1158,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
